--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/SOUTH_DAKOTA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/SOUTH_DAKOTA_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincon De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Tecoman</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Villagran</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ayotlan</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Union De San Antonio</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Mugica</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Querendaro</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Zitacuaro</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1534,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Santo Domingo Tonala</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1609,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1622,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1635,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tepango De Rodriguez</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zoquiapan</t>
@@ -1687,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1718,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Ciudad Del Maiz</t>
@@ -1731,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Ciudad Fernandez</t>
@@ -1744,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1757,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1788,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1819,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -1832,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1863,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1894,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -1907,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -1920,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>San Carlos</t>
@@ -1933,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1946,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1977,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Nativitas</t>
@@ -1990,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2021,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -2034,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2047,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -2060,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2073,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -2086,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2099,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2130,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -2143,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Valparaiso</t>
@@ -2156,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2169,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
